--- a/docs/UsedDataVar.xlsx
+++ b/docs/UsedDataVar.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MY PROGRAM\YR_Greening_Network\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1323A93C-C222-4CFF-9290-CD819D1772AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,332 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="75">
+  <si>
+    <t>数据类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本底数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据分辨率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间起始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间分辨率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LUCC数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1986-2018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAI数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GEE-ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOAA/CDR/AVHRR/LAI_FAPAR/V5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1982-2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月/年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NASA/FLDAS/NOAH01/C/GL/M/V001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土壤湿度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土壤温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近地表温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近地表风速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地表压力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比湿</t>
+  </si>
+  <si>
+    <t>土壤热通量</t>
+  </si>
+  <si>
+    <t>地下水径流</t>
+  </si>
+  <si>
+    <t>IDAHO_EPSCOR/TERRACLIMATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1度（11.1km）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5分(4.6km)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.05度(5.5km)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际蒸散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1958-2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计降水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>径流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土壤水分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饱和水汽压差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ECMWF/ERA5_LAND/MONTHLY</t>
+  </si>
+  <si>
+    <t>1981-2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空气温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地表温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土壤温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土壤含水量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>植被蒸腾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总蒸散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风速（两个分量）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地表压力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总降水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N沉降数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CO2浓度数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1700-2010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>users/thrillerlemon/NEW_landsat_LC/landcover_1986_tempslid_old</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分8个LUC类型（Forests、Shrublands、Grasslands、Croplands、Orchard and Terrace、Urban and Built-up、Water Bodies、Desert and Low-vegetated Lands）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vpd</t>
+  </si>
+  <si>
+    <t>vs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>runoff</t>
+  </si>
+  <si>
+    <t>surface_pressure</t>
+  </si>
+  <si>
+    <t>total_precipitation</t>
+  </si>
+  <si>
+    <t>evaporation_from_vegetation_transpiration</t>
+  </si>
+  <si>
+    <t>统计方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GA内类型面积比例变化率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GA内平均（月-年为加和）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GA内平均（月-年为平均）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GA内多土层平均（月-年为平均）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temperature_2m</t>
+  </si>
+  <si>
+    <r>
+      <t>soil_temperature_level_</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>volumetric_soil_water_layer_</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>matlab脚本见github，一个nc2tif，一个相加两个N化合物的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空缺可以用影像修复方法填补（blend）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://code.earthengine.google.com/5d71518d317e56221714f6320fc383d7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +357,57 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,14 +419,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +715,626 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.875" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" t="s">
+        <v>51</v>
+      </c>
+      <c r="G31" t="s">
+        <v>52</v>
+      </c>
+      <c r="H31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{4D707457-EDDC-4DB6-B978-053EF386BAEF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/UsedDataVar.xlsx
+++ b/docs/UsedDataVar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MY PROGRAM\YR_Greening_Network\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1323A93C-C222-4CFF-9290-CD819D1772AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA58B07-C8D2-4300-B319-EB50B2970254}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="4440" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="76">
   <si>
     <t>数据类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -342,6 +342,10 @@
   </si>
   <si>
     <t>https://code.earthengine.google.com/5d71518d317e56221714f6320fc383d7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GA内多土层总和（月-年为平均）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -718,8 +722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="80" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1158,7 +1162,7 @@
         <v>70</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>36</v>
@@ -1336,5 +1340,6 @@
     <hyperlink ref="J2" r:id="rId1" xr:uid="{4D707457-EDDC-4DB6-B978-053EF386BAEF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>